--- a/biology/Botanique/Gastrolobium/Gastrolobium.xlsx
+++ b/biology/Botanique/Gastrolobium/Gastrolobium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gastrolobium est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Australie, qui comprend une centaine d'espèces acceptées. 
-Ce sont des arbustes ou arbrisseaux qui se rencontrent dans les communautés sclérophylles dans les forêts d'eucalyptus, les zones boisées, les landes, les zones de broussailles et de prairies sèches, principalement dans le sud-ouest de l'Australie[3].
-Un nombre important d'espèces accumulent de l' acide monofluoroacétique (substance active du poison connu localement sous le nom de « 1080 »), causant la mort d'animaux non indigènes et notamment du bétail à partir des années 1840 en Australie occidentale. Le botaniste James Drummond a réalisé à cette époque une série d’essais visant à déterminer la cause exacte de l’intoxication et montra qu'elle était due principalement aux espèces Gastrolobium calycinum (York Road poison) et Gastrolobium oxylobioides (Champion Bay poison)[4],[5].
-Dans les années 1930 et 1940 Charles Gardner et Harold William Bennetts  ont accompli un travail considérable pour identifier d’autres espèces en Australie occidentale, ce qui a mené à la publication de « The Toxic Plants of Western Australia » en 1956[6].
-Le nombre chromosomique de base du genre Gastrolobium est x = 8, avec des espèces diploïdes (2n = 2x =16) et tétraploïdes (2n = 4 x = 32 pour l'unique espèce précédemment rattachée au genre Jansonia)[7],[8].
+Ce sont des arbustes ou arbrisseaux qui se rencontrent dans les communautés sclérophylles dans les forêts d'eucalyptus, les zones boisées, les landes, les zones de broussailles et de prairies sèches, principalement dans le sud-ouest de l'Australie.
+Un nombre important d'espèces accumulent de l' acide monofluoroacétique (substance active du poison connu localement sous le nom de « 1080 »), causant la mort d'animaux non indigènes et notamment du bétail à partir des années 1840 en Australie occidentale. Le botaniste James Drummond a réalisé à cette époque une série d’essais visant à déterminer la cause exacte de l’intoxication et montra qu'elle était due principalement aux espèces Gastrolobium calycinum (York Road poison) et Gastrolobium oxylobioides (Champion Bay poison),.
+Dans les années 1930 et 1940 Charles Gardner et Harold William Bennetts  ont accompli un travail considérable pour identifier d’autres espèces en Australie occidentale, ce qui a mené à la publication de « The Toxic Plants of Western Australia » en 1956.
+Le nombre chromosomique de base du genre Gastrolobium est x = 8, avec des espèces diploïdes (2n = 2x =16) et tétraploïdes (2n = 4 x = 32 pour l'unique espèce précédemment rattachée au genre Jansonia),.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (22 septembre 2018)[9] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (22 septembre 2018) :
 Gastrolobium acrocaroli G. Chandler &amp; Crisp
 Gastrolobium aculeatum G. Chandler, Crisp &amp; R.J. Bayer
 Gastrolobium acutum Benth.
